--- a/Data/InitialCommunication.xlsx
+++ b/Data/InitialCommunication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranjalmahajan/Desktop/untitled folder/ProjectPyxis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D62BDBD-2E32-0D4C-A42F-732297B55D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4D71C-1DE7-46EC-BA24-DD56BFCE43DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{E0D025C0-F188-8A4E-8964-529498D0C86A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0D025C0-F188-8A4E-8964-529498D0C86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Sender</t>
   </si>
@@ -48,46 +46,34 @@
     <t>User</t>
   </si>
   <si>
-    <t>This is the commander of Artemis 9. Respond if you can receive my messages?</t>
-  </si>
-  <si>
-    <t>Who’s this?</t>
-  </si>
-  <si>
-    <t>I am the mission commander. I am connecting to you from the space, and we are on our mission to the moon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is this a joke? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a NASA mission for scientific discovery, economic benefits, and inspiration for a new generation of explorers: the Artemis Generation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I still don’t get you. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">With Artemis missions, NASA will land the first woman and first person of color on the Moon, using innovative technologies to explore more of the lunar surface than ever before. </t>
-  </si>
-  <si>
-    <t>What does it have to do with me?</t>
-  </si>
-  <si>
-    <t>We are experiencing life-threatening and technical issues on the spacecraft. We need HELP!</t>
-  </si>
-  <si>
-    <t>Woaaah! I am going to be a part of a space mission. HECK YEAH!!!</t>
-  </si>
-  <si>
-    <t>Our spacecraft has been hit and we are unable to connect with the mission control. The CDRA device on the spacecraft is malfunctioning and oxygen levels are depleting severely.</t>
-  </si>
-  <si>
-    <t>As a former astronaut, I understand your situation.</t>
-  </si>
-  <si>
-    <t>That’s awesome! I am sure you can get us out of this misery. My partner and I need any help we can get from you.</t>
-  </si>
-  <si>
-    <t>Please, steer us out of this situation. Hereon, I pass the command to you!</t>
+    <t>This is the Commander Olivia of Artemis 9. Reaching to Ground Control. Please Respond</t>
+  </si>
+  <si>
+    <t>Ground Control, This is Commander Olivia of Artemis 9. This is an emergency. Please Respond</t>
+  </si>
+  <si>
+    <t>Commander Olivia this is retired Captain Adrien from Aries Mission Program. There seems to be a communication error and I am receiving this messages.</t>
+  </si>
+  <si>
+    <t>Thank God. Captain Adrien, so good to see a response. I am the mission commander of Artemis 9. A mission to the moon to test new technologies which would enable us to colonize moon in the furture.</t>
+  </si>
+  <si>
+    <t>However currently we are experiencing life-threatening and technical issues on the spacecraft. We need HELP!</t>
+  </si>
+  <si>
+    <t>I need instant assistance. As a decorated Astronaut you must have some wisdom to navigate a situation like this. Please guide me through this emergency.</t>
+  </si>
+  <si>
+    <t>Our spacecraft has been hit and we are unable to connect with the mission control. I have been trying for so long. The CDRA device on the spacecraft is malfunctioning and oxygen levels are depleting severely.</t>
+  </si>
+  <si>
+    <t>Commander Olivia. Calm down, I am trying to reach Ground control, but all lines are coming busy. I 'll try to help you as much as I can. Please walk me through the situation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you! I am on the space ship with a first time astronaut, Karter . An asteroid has impacted somewhere on the spaceship, the CDRA is malfunctioning. The oxygen levels are not enough for two of us to survive for long. </t>
+  </si>
+  <si>
+    <t>The north star is right infront of the space ship, so you can use traditional directions to tell me where to go.</t>
   </si>
 </sst>
 </file>
@@ -439,19 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31893DF-7B02-8443-980D-0E86C181D0CD}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="151.6640625" customWidth="1"/>
+    <col min="2" max="2" width="134.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,31 +453,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -499,23 +485,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -523,7 +509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -531,44 +517,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Data/InitialCommunication.xlsx
+++ b/Data/InitialCommunication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4D71C-1DE7-46EC-BA24-DD56BFCE43DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9055C7CE-74D0-492D-A89D-E338B5C5521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0D025C0-F188-8A4E-8964-529498D0C86A}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{E0D025C0-F188-8A4E-8964-529498D0C86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>Ground Control, This is Commander Olivia of Artemis 9. This is an emergency. Please Respond</t>
   </si>
   <si>
-    <t>Commander Olivia this is retired Captain Adrien from Aries Mission Program. There seems to be a communication error and I am receiving this messages.</t>
-  </si>
-  <si>
-    <t>Thank God. Captain Adrien, so good to see a response. I am the mission commander of Artemis 9. A mission to the moon to test new technologies which would enable us to colonize moon in the furture.</t>
-  </si>
-  <si>
     <t>However currently we are experiencing life-threatening and technical issues on the spacecraft. We need HELP!</t>
   </si>
   <si>
@@ -70,10 +64,16 @@
     <t>Commander Olivia. Calm down, I am trying to reach Ground control, but all lines are coming busy. I 'll try to help you as much as I can. Please walk me through the situation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you! I am on the space ship with a first time astronaut, Karter . An asteroid has impacted somewhere on the spaceship, the CDRA is malfunctioning. The oxygen levels are not enough for two of us to survive for long. </t>
-  </si>
-  <si>
     <t>The north star is right infront of the space ship, so you can use traditional directions to tell me where to go.</t>
+  </si>
+  <si>
+    <t>Commander Olivia this is retired Captain Karter from Aries Mission Program. There seems to be a communication error and I am receiving this messages.</t>
+  </si>
+  <si>
+    <t>Thank God. Captain Karter, so good to see a response. I am the mission commander of Artemis 9. A mission to the moon to test new technologies which would enable us to colonize moon in the furture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you! I am on the space ship with a first time astronaut, Adrien . An asteroid has impacted somewhere on the spaceship, the CDRA is malfunctioning. The oxygen levels are not enough for two of us to survive for long. </t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31893DF-7B02-8443-980D-0E86C181D0CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -514,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
